--- a/biology/Zoologie/Callithrix_mauesi/Callithrix_mauesi.xlsx
+++ b/biology/Zoologie/Callithrix_mauesi/Callithrix_mauesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mico mauesi · Ouistiti du Rio Maués
-Le Ouistiti du Rio Maués[1] (Mico mauesi ou Callithrix mauesi) est une espèce de primate de la famille des Callitrichidae.
+Le Ouistiti du Rio Maués (Mico mauesi ou Callithrix mauesi) est une espèce de primate de la famille des Callitrichidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maués marmoset, zebra marmoset.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seulement décrit en 1992. Pourtant, un couple d’ouistitis du Rio Maués avait été importé vers les États-Unis en 1985 par le biologiste Marco Schwartz, qui n’avait su les identifier.
 </t>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord du Brésil au sud de l’Amazone. Au sud de la confluence Solimões-Madeira, dans une zone délimitée à l’ouest par le Rio Abacaxís, à l’est par le Rio Maués-Açú et au nord par le Rio Urariá.
 </t>
@@ -605,7 +623,9 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec l’Ouistiti de Santarém (M. humeralifer) entre les sources des Rio Maués et Abacaxís. Un cas unique chez les ouistitis amazoniens.
 </t>
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt pluviale primaire dense.
 </t>
@@ -667,7 +689,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est l’ouistiti le plus sombre. Dos sombre traversé de taches et raies blanchâtres. Membres brun sombre givrés de poils argentés. Dessous chamois teinté d’orangé. Queue épaisse faiblement marquée d’une douzaine d’anneaux grisâtres. Pieds faiblement teintés d’orangé. Face rose, nue seulement au niveau du museau. Des poils noirâtres entourent le museau tandis qu’une bande brun argenté encadre chaque côté de la face. Reste de la tête sombre, y compris les oreilles touffues. Scrotum blanc rosâtre.
 </t>
@@ -698,7 +722,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps de 20 à 22 cm. Queue de 34 à 37,5 cm. Poids 370 g (de 315 à 405 g).
 </t>
@@ -729,7 +755,9 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Quadrupède.
 </t>
@@ -760,7 +788,9 @@
           <t>Comportements basiques</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Diurne, arboricole et territorial.
 </t>
@@ -791,7 +821,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Frugivore, gommivore et insectivore.
 </t>
@@ -822,7 +854,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt d’État de Maués (Brésil).
 </t>
